--- a/optimization/hrp_portfolio_weights.xlsx
+++ b/optimization/hrp_portfolio_weights.xlsx
@@ -1,24 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\work\repovault\quant\optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1BD99-3B61-4EAC-A2B0-6C7796F49622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5028" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>weights</t>
   </si>
   <si>
+    <t>BTC-USD</t>
+  </si>
+  <si>
+    <t>GDX</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
     <t>IEMG</t>
   </si>
   <si>
@@ -28,17 +51,32 @@
     <t>IWM</t>
   </si>
   <si>
+    <t>SLV</t>
+  </si>
+  <si>
     <t>SPY</t>
   </si>
   <si>
+    <t>URA</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
     <t>VEA</t>
+  </si>
+  <si>
+    <t>YPF</t>
+  </si>
+  <si>
+    <t>ON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +86,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,25 +132,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -147,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +235,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +287,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,59 +480,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.46147046576887463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1220469593631088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.9022090711759863E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.8076723326734793E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.9087613905350243E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.5400920790777862E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.5146044048436353E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.9950256310127311E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.8260590097992151E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.556527488545144E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.3214473302477012E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.205592696651398E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.1274628234886487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.2144860684258675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.1800827464215609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.3056826653584525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.1722856963054704</v>
+      <c r="B14" s="2">
+        <v>1.0702660522395579E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>